--- a/Validating_selection_scheme/Collect_bacterial_densities/density_plating.xlsx
+++ b/Validating_selection_scheme/Collect_bacterial_densities/density_plating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/Collect_bacterial_densities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309C00CC-3B09-B347-96C0-5557D152223F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE04CC3-C6DF-1A47-B86B-660CFF0F0399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27360" yWindow="2060" windowWidth="22240" windowHeight="17520" xr2:uid="{BA6A53D5-22B1-2644-B2A8-FE04CD7653CE}"/>
   </bookViews>
@@ -44,12 +44,6 @@
     <t>Plate type</t>
   </si>
   <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>Tet7.5</t>
   </si>
   <si>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>BK451</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -682,10 +682,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -695,16 +695,16 @@
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="13">
         <v>5</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="15">
         <v>100</v>
@@ -716,16 +716,16 @@
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>3</v>
       </c>
       <c r="C4" s="19">
         <v>6</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="21">
         <v>10</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="C5" s="24">
         <v>5</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="26">
         <v>0</v>
@@ -763,16 +763,16 @@
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="28">
         <v>0</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>4</v>
       </c>
       <c r="C8" s="19">
         <v>5</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="21">
         <v>100</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>4</v>
       </c>
       <c r="C9" s="24">
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="30">
         <v>10</v>
